--- a/start_db.xlsx
+++ b/start_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snckmykek\PycharmProjects\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658A374-B24C-4071-B9D5-C6BFED5689A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B8ADC-15A8-4EAF-AADD-B400654C56A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="975" windowWidth="19440" windowHeight="15000" tabRatio="927" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="975" windowWidth="19440" windowHeight="15000" tabRatio="927" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="196">
   <si>
     <t>bonus</t>
   </si>
@@ -625,6 +625,12 @@
   </si>
   <si>
     <t>open_manuscript</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -3671,7 +3677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4021,7 +4027,7 @@
         <v>50</v>
       </c>
       <c r="G15">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,7 +4050,7 @@
         <v>60</v>
       </c>
       <c r="G16">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4067,7 +4073,7 @@
         <v>50</v>
       </c>
       <c r="G17">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4090,7 +4096,7 @@
         <v>80</v>
       </c>
       <c r="G18">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4113,7 +4119,7 @@
         <v>120</v>
       </c>
       <c r="G19">
-        <v>550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,7 +4142,7 @@
         <v>30</v>
       </c>
       <c r="G20">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4159,7 +4165,7 @@
         <v>60</v>
       </c>
       <c r="G21">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4182,7 +4188,7 @@
         <v>90</v>
       </c>
       <c r="G22">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4527,7 +4533,7 @@
         <v>60</v>
       </c>
       <c r="G37">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4550,7 +4556,7 @@
         <v>50</v>
       </c>
       <c r="G38">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4941,7 +4947,7 @@
         <v>60</v>
       </c>
       <c r="G55">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4964,7 +4970,7 @@
         <v>50</v>
       </c>
       <c r="G56">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5079,7 +5085,7 @@
         <v>90</v>
       </c>
       <c r="G61">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5424,7 +5430,7 @@
         <v>60</v>
       </c>
       <c r="G76">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,7 +5453,7 @@
         <v>50</v>
       </c>
       <c r="G77">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5838,7 +5844,7 @@
         <v>60</v>
       </c>
       <c r="G94">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5861,7 +5867,7 @@
         <v>50</v>
       </c>
       <c r="G95">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5976,7 +5982,7 @@
         <v>90</v>
       </c>
       <c r="G100">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6321,7 +6327,7 @@
         <v>60</v>
       </c>
       <c r="G115">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -6344,7 +6350,7 @@
         <v>50</v>
       </c>
       <c r="G116">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -6442,8 +6448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16AB8FE-0428-45A1-8AB6-FCC19B6524B4}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6490,7 +6496,7 @@
         <v>126</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6519,7 +6525,7 @@
         <v>127</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6548,7 +6554,7 @@
         <v>128</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6574,7 +6580,7 @@
         <v>129</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6600,7 +6606,7 @@
         <v>130</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6626,7 +6632,7 @@
         <v>131</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6652,7 +6658,7 @@
         <v>132</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6678,7 +6684,7 @@
         <v>133</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6704,7 +6710,7 @@
         <v>134</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6730,7 +6736,7 @@
         <v>135</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6756,7 +6762,7 @@
         <v>136</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6782,7 +6788,7 @@
         <v>137</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -6808,7 +6814,7 @@
         <v>138</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -6834,7 +6840,7 @@
         <v>139</v>
       </c>
       <c r="C15">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -6872,7 +6878,7 @@
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -6901,7 +6907,7 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -7570,10 +7576,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC213907-93D9-459A-BA5D-3C4A0E992FFA}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7803,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -7814,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -7825,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -7839,7 +7845,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7847,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7858,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7869,10 +7875,10 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7883,7 +7889,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7891,10 +7897,10 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7902,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7913,10 +7919,10 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7924,10 +7930,10 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7935,10 +7941,10 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7946,10 +7952,10 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7957,10 +7963,10 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7968,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7979,10 +7985,10 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7990,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -8001,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8012,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -8026,7 +8032,7 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8037,7 +8043,7 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8045,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8056,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8067,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8081,7 +8087,7 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8092,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8100,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8111,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8122,10 +8128,10 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8136,7 +8142,7 @@
         <v>13</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8144,10 +8150,10 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8155,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8166,10 +8172,10 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8180,6 +8186,39 @@
         <v>14</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58">
         <v>3</v>
       </c>
     </row>
@@ -8566,7 +8605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A4338D-0251-443F-8906-A26B275FB1A2}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -15220,7 +15259,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15398,15 +15437,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD491E-238D-40A0-BF69-62DA4910C578}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15414,10 +15456,13 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15425,10 +15470,13 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -15436,10 +15484,13 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15447,10 +15498,13 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15458,10 +15512,13 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -15469,10 +15526,13 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -15480,10 +15540,13 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -15491,10 +15554,13 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -15502,10 +15568,13 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -15513,10 +15582,13 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -15524,10 +15596,13 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -15535,10 +15610,13 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -15546,6 +15624,9 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/start_db.xlsx
+++ b/start_db.xlsx
@@ -8,30 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snckmykek\PycharmProjects\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B8ADC-15A8-4EAF-AADD-B400654C56A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1078D-6595-41B9-8B7C-38515EF05F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="975" windowWidth="19440" windowHeight="15000" tabRatio="927" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="975" windowWidth="19440" windowHeight="15000" tabRatio="927" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="15" r:id="rId1"/>
-    <sheet name="global_bonuses" sheetId="1" r:id="rId2"/>
-    <sheet name="manuscripts" sheetId="2" r:id="rId3"/>
-    <sheet name="manuscripts_lang" sheetId="3" r:id="rId4"/>
-    <sheet name="for_up_lvl" sheetId="4" r:id="rId5"/>
-    <sheet name="skills" sheetId="5" r:id="rId6"/>
-    <sheet name="skills_lang" sheetId="6" r:id="rId7"/>
-    <sheet name="chests" sheetId="7" r:id="rId8"/>
-    <sheet name="chests_lang" sheetId="8" r:id="rId9"/>
-    <sheet name="lvl_settings" sheetId="9" r:id="rId10"/>
-    <sheet name="lvl_settings_lang" sheetId="10" r:id="rId11"/>
-    <sheet name="levels" sheetId="11" r:id="rId12"/>
-    <sheet name="speech_and_descriptions" sheetId="12" r:id="rId13"/>
-    <sheet name="items_and_resources" sheetId="13" r:id="rId14"/>
-    <sheet name="items_and_resources_lang" sheetId="14" r:id="rId15"/>
-    <sheet name="level_colors" sheetId="18" r:id="rId16"/>
-    <sheet name="colors" sheetId="16" r:id="rId17"/>
-    <sheet name="game_bonuses" sheetId="17" r:id="rId18"/>
-    <sheet name="actions" sheetId="19" r:id="rId19"/>
+    <sheet name="game_settings" sheetId="25" r:id="rId2"/>
+    <sheet name="game_settings_lang" sheetId="26" r:id="rId3"/>
+    <sheet name="languages" sheetId="24" r:id="rId4"/>
+    <sheet name="global_bonuses" sheetId="1" r:id="rId5"/>
+    <sheet name="manuscripts" sheetId="2" r:id="rId6"/>
+    <sheet name="manuscripts_lang" sheetId="3" r:id="rId7"/>
+    <sheet name="for_up_lvl" sheetId="4" r:id="rId8"/>
+    <sheet name="skills" sheetId="5" r:id="rId9"/>
+    <sheet name="skills_lang" sheetId="6" r:id="rId10"/>
+    <sheet name="chests" sheetId="7" r:id="rId11"/>
+    <sheet name="chests_lang" sheetId="8" r:id="rId12"/>
+    <sheet name="lvl_settings" sheetId="9" r:id="rId13"/>
+    <sheet name="lvl_settings_lang" sheetId="10" r:id="rId14"/>
+    <sheet name="levels" sheetId="11" r:id="rId15"/>
+    <sheet name="speech_and_descriptions" sheetId="12" r:id="rId16"/>
+    <sheet name="items_and_resources" sheetId="13" r:id="rId17"/>
+    <sheet name="items_and_resources_lang" sheetId="14" r:id="rId18"/>
+    <sheet name="level_colors" sheetId="18" r:id="rId19"/>
+    <sheet name="colors" sheetId="16" r:id="rId20"/>
+    <sheet name="game_bonuses" sheetId="17" r:id="rId21"/>
+    <sheet name="actions" sheetId="19" r:id="rId22"/>
+    <sheet name="speech" sheetId="20" r:id="rId23"/>
+    <sheet name="miniatures" sheetId="23" r:id="rId24"/>
+    <sheet name="heroes" sheetId="22" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="257">
   <si>
     <t>bonus</t>
   </si>
@@ -631,6 +637,189 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>speech_order</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>anti_hero</t>
+  </si>
+  <si>
+    <t>companion</t>
+  </si>
+  <si>
+    <t>Это тест для настройки комфортной скорости чтения.</t>
+  </si>
+  <si>
+    <t>Двигайте ползунок, чтобы изменить скорость появления текста.</t>
+  </si>
+  <si>
+    <t>К слову, у нас много других настроек для комфортной игры.</t>
+  </si>
+  <si>
+    <t>Настройки открываются из главного меню. Приятной игры!</t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>This is a test for setting a comfortable reading speed.</t>
+  </si>
+  <si>
+    <t>Move the slider to change the speed at which text appears.</t>
+  </si>
+  <si>
+    <t>Вы всегда можете изменить скорость появления текста в настройках.</t>
+  </si>
+  <si>
+    <t>You can always change the speed of appearance of the text in the settings.</t>
+  </si>
+  <si>
+    <t>By the way, we have many other settings for a comfortable game.</t>
+  </si>
+  <si>
+    <t>Settings open from the main menu. Have a nice game!</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>current_loc_id</t>
+  </si>
+  <si>
+    <t>current_lvl_id</t>
+  </si>
+  <si>
+    <t>when_to_call</t>
+  </si>
+  <si>
+    <t>Кликните по экрану в область диалога, чтобы мгновенно увидеть всю реплику целиком. Попробуйте прямо сейчас, пока я буду писать этот очень длинный текст. \nПрирода Крайнего Севера разнообразна. Это ледники и каменистые пустыни Арктики, дрейфующие льды арктических морей, полоса тундр — то унылых, низменных и заболоченных, то сухих, покрытых летом пестрым ковром цветущих трав. Есть здесь заросли кустарников и одиночные деревья, рощицы лиственниц, елей, корявых, изогнутых берез. Крайний Север — это вереницы озер, густая сеть ручьев и рек, это морские побережья, то крутые, сглаженные волнами громады скал, то бесконечные пляжи с завалами плавника.</t>
+  </si>
+  <si>
+    <t>Click on the screen in the dialog area to instantly see the entire replica. Try it now while I am writing this very long text. \nThe nature of the Far North is diverse. These are glaciers and stony deserts of the Arctic, drifting ice of the Arctic seas, a strip of tundra - then dull, low-lying and marshy, then dry, flowering grasses covered with a colorful carpet in summer. There are bushes and solitary trees, groves of larch, spruce, clumsy, curved birches. The Far North is a series of lakes, a dense network of streams and rivers, these are sea coasts, then steep, smooth waves of rocks smoothed by waves, then endless beaches with fin blockages.</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Companion</t>
+  </si>
+  <si>
+    <t>Antihero</t>
+  </si>
+  <si>
+    <t>images/heroes/hero.png</t>
+  </si>
+  <si>
+    <t>images/heroes/companion.png</t>
+  </si>
+  <si>
+    <t>images/heroes/anti_hero.png</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Тест 1</t>
+  </si>
+  <si>
+    <t>Тест 2</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>miniature_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестируем тестовый тест тестируем тестовый тест. Тестируем тестовый тест тестируем тестовый тест. Тестируем тестовый тест тестируем тестовый тест. </t>
+  </si>
+  <si>
+    <t>images/miniatures/farewell_note.png</t>
+  </si>
+  <si>
+    <t>miniature</t>
+  </si>
+  <si>
+    <t>images/miniatures/fon2.png</t>
+  </si>
+  <si>
+    <t>images/miniatures/world_map_2.png</t>
+  </si>
+  <si>
+    <t>Ghbdtn</t>
+  </si>
+  <si>
+    <t>images/miniatures/Screenshot_4.png</t>
+  </si>
+  <si>
+    <t>Апаснасть это ага да, а вот не апасность это нет и нет проблема да.</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>SPEECH_SPEED</t>
+  </si>
+  <si>
+    <t>MUSIC_VOLUME</t>
+  </si>
+  <si>
+    <t>Язык</t>
+  </si>
+  <si>
+    <t>Скорость реплик</t>
+  </si>
+  <si>
+    <t>Громкость музыки</t>
+  </si>
+  <si>
+    <t>CUBE_MOVE_VOLUME</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Speech speed</t>
+  </si>
+  <si>
+    <t>Music volume</t>
+  </si>
+  <si>
+    <t>Volume of movement of field elements</t>
+  </si>
+  <si>
+    <t>Громкость движения элементов поля</t>
   </si>
 </sst>
 </file>
@@ -672,8 +861,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -954,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5054111A-95ED-49E4-8765-DCCFD7FF7C9E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,12 +1181,1326 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD491E-238D-40A0-BF69-62DA4910C578}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAD34FE-FDAD-4091-B3A7-8C7652685EE9}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70441C2-9BE7-4A77-92B1-06BD72BFF458}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD84CBF2-2FCD-4BAB-9F12-9D608941CFC1}">
   <dimension ref="A1:N40"/>
   <sheetViews>
@@ -2546,7 +4052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C736FF81-475B-44CB-BBE7-85AE4FF4518E}">
   <dimension ref="A1:D79"/>
   <sheetViews>
@@ -3671,7 +5177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF433431-3E27-4F68-AE1D-CEA2AAC4AC33}">
   <dimension ref="A1:G118"/>
   <sheetViews>
@@ -6404,7 +7910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D0448D-EAA4-4309-A09D-781E5BD205BB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6444,11 +7950,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16AB8FE-0428-45A1-8AB6-FCC19B6524B4}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -7009,7 +8515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C990E5FE-8494-461C-B6B6-EB9EDED6294D}">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -7574,7 +9080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC213907-93D9-459A-BA5D-3C4A0E992FFA}">
   <dimension ref="A1:C58"/>
   <sheetViews>
@@ -8227,7 +9733,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6919C-E057-4D2B-B68A-4F60A7DC347A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37B25C5-20E3-4F0D-8BBE-E6A10F75F981}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -8395,7 +9959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F0E707-D929-4B6C-A217-6304DEAD0A83}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -8601,22 +10165,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A4338D-0251-443F-8906-A26B275FB1A2}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -8633,10 +10198,13 @@
         <v>30</v>
       </c>
       <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8652,11 +10220,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8672,11 +10243,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8692,11 +10266,14 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8712,11 +10289,14 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8732,11 +10312,14 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8752,7 +10335,125 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
@@ -8762,7 +10463,747 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7D8AE-63E0-4282-8FD1-27B1D30F5777}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="60.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264761C5-4E4D-4D79-9F3D-95D17886862B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C19161-88A0-48F0-AB89-48D18599DE1F}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD388A19-DA49-47C3-9BA2-9B098AC55C3D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5507FEC-0EAE-4F31-A744-6B3BBD5949E4}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8849,7 +11290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD188B1-CEFB-4274-B0D8-746CFAD72EEC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -8964,7 +11405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF79BA3-B18F-4EBC-8518-A80D55AF2F98}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -9059,7 +11500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDA5321-EF7D-4709-8664-0533BE6CC5BF}">
   <dimension ref="A1:D441"/>
   <sheetViews>
@@ -15254,7 +17695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8924E574-FD9E-4C2E-B8D8-F98B6EC90312}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -15433,1302 +17874,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD491E-238D-40A0-BF69-62DA4910C578}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAD34FE-FDAD-4091-B3A7-8C7652685EE9}">
-  <dimension ref="A1:F49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>120</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32">
-        <v>14</v>
-      </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>500</v>
-      </c>
-      <c r="F33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45">
-        <v>11</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>18</v>
-      </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46">
-        <v>12</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47">
-        <v>13</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48">
-        <v>14</v>
-      </c>
-      <c r="E48">
-        <v>50</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>18</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49">
-        <v>15</v>
-      </c>
-      <c r="E49">
-        <v>1000</v>
-      </c>
-      <c r="F49">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70441C2-9BE7-4A77-92B1-06BD72BFF458}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/start_db.xlsx
+++ b/start_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snckmykek\PycharmProjects\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1078D-6595-41B9-8B7C-38515EF05F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F7868-BDDA-4B80-B147-49E2A2F37C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="975" windowWidth="19440" windowHeight="15000" tabRatio="927" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="975" windowWidth="19440" windowHeight="15000" tabRatio="927" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="15" r:id="rId1"/>
@@ -35,21 +35,28 @@
     <sheet name="colors" sheetId="16" r:id="rId20"/>
     <sheet name="game_bonuses" sheetId="17" r:id="rId21"/>
     <sheet name="actions" sheetId="19" r:id="rId22"/>
-    <sheet name="speech" sheetId="20" r:id="rId23"/>
-    <sheet name="miniatures" sheetId="23" r:id="rId24"/>
-    <sheet name="heroes" sheetId="22" r:id="rId25"/>
+    <sheet name="information" sheetId="27" r:id="rId23"/>
+    <sheet name="speech" sheetId="20" r:id="rId24"/>
+    <sheet name="miniatures" sheetId="23" r:id="rId25"/>
+    <sheet name="heroes" sheetId="22" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="286">
   <si>
     <t>bonus</t>
   </si>
@@ -624,9 +631,6 @@
     <t>action_type</t>
   </si>
   <si>
-    <t>action_id</t>
-  </si>
-  <si>
     <t>open_skill</t>
   </si>
   <si>
@@ -672,30 +676,18 @@
     <t>dialog</t>
   </si>
   <si>
-    <t>This is a test for setting a comfortable reading speed.</t>
-  </si>
-  <si>
-    <t>Move the slider to change the speed at which text appears.</t>
-  </si>
-  <si>
     <t>Вы всегда можете изменить скорость появления текста в настройках.</t>
   </si>
   <si>
-    <t>You can always change the speed of appearance of the text in the settings.</t>
-  </si>
-  <si>
-    <t>By the way, we have many other settings for a comfortable game.</t>
-  </si>
-  <si>
-    <t>Settings open from the main menu. Have a nice game!</t>
-  </si>
-  <si>
     <t>before</t>
   </si>
   <si>
     <t>after</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>current_loc_id</t>
   </si>
   <si>
@@ -708,9 +700,6 @@
     <t>Кликните по экрану в область диалога, чтобы мгновенно увидеть всю реплику целиком. Попробуйте прямо сейчас, пока я буду писать этот очень длинный текст. \nПрирода Крайнего Севера разнообразна. Это ледники и каменистые пустыни Арктики, дрейфующие льды арктических морей, полоса тундр — то унылых, низменных и заболоченных, то сухих, покрытых летом пестрым ковром цветущих трав. Есть здесь заросли кустарников и одиночные деревья, рощицы лиственниц, елей, корявых, изогнутых берез. Крайний Север — это вереницы озер, густая сеть ручьев и рек, это морские побережья, то крутые, сглаженные волнами громады скал, то бесконечные пляжи с завалами плавника.</t>
   </si>
   <si>
-    <t>Click on the screen in the dialog area to instantly see the entire replica. Try it now while I am writing this very long text. \nThe nature of the Far North is diverse. These are glaciers and stony deserts of the Arctic, drifting ice of the Arctic seas, a strip of tundra - then dull, low-lying and marshy, then dry, flowering grasses covered with a colorful carpet in summer. There are bushes and solitary trees, groves of larch, spruce, clumsy, curved birches. The Far North is a series of lakes, a dense network of streams and rivers, these are sea coasts, then steep, smooth waves of rocks smoothed by waves, then endless beaches with fin blockages.</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
@@ -723,9 +712,6 @@
     <t>Hero</t>
   </si>
   <si>
-    <t>Companion</t>
-  </si>
-  <si>
     <t>Antihero</t>
   </si>
   <si>
@@ -741,45 +727,18 @@
     <t>menu</t>
   </si>
   <si>
-    <t>Тест 1</t>
-  </si>
-  <si>
-    <t>Тест 2</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
     <t>miniature_order</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестируем тестовый тест тестируем тестовый тест. Тестируем тестовый тест тестируем тестовый тест. Тестируем тестовый тест тестируем тестовый тест. </t>
-  </si>
-  <si>
     <t>images/miniatures/farewell_note.png</t>
   </si>
   <si>
     <t>miniature</t>
   </si>
   <si>
-    <t>images/miniatures/fon2.png</t>
-  </si>
-  <si>
-    <t>images/miniatures/world_map_2.png</t>
-  </si>
-  <si>
-    <t>Ghbdtn</t>
-  </si>
-  <si>
     <t>images/miniatures/Screenshot_4.png</t>
   </si>
   <si>
-    <t>Апаснасть это ага да, а вот не апасность это нет и нет проблема да.</t>
-  </si>
-  <si>
     <t>LANGUAGE</t>
   </si>
   <si>
@@ -820,13 +779,148 @@
   </si>
   <si>
     <t>Громкость движения элементов поля</t>
+  </si>
+  <si>
+    <t>Привет! Перед началом игры требуется установить некоторые настройки.</t>
+  </si>
+  <si>
+    <t>images/dialogs_field.png</t>
+  </si>
+  <si>
+    <t>information_order</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>В который раз перечитываю эту записку. А зачем? Он просто ушел…</t>
+  </si>
+  <si>
+    <t>Он мог хотя бы объясниться!</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Динка</t>
+  </si>
+  <si>
+    <t>В прочем, это не важно. У меня есть крыша над головой, теплый камин, эти захватывающие рассказы Оливера Мэтига о своих приключениях и ты, COMPANION_NAME.</t>
+  </si>
+  <si>
+    <t>Пока это только мечты… Не знаю, будет ли возможность посетить все те сказочные места, о которых мы размышляем. \nВ последнее время, я всё чаще рассматриваю карту отца. Вот бы покорить все места, отмеченные на карте!</t>
+  </si>
+  <si>
+    <t>К сожалению, это дорогое удовольствие, а у нас… 150 золотых и несколько алмазов, которыми в этих краях никого не удивишь…</t>
+  </si>
+  <si>
+    <t>Не забывай еще и о наших приключениях!</t>
+  </si>
+  <si>
+    <t>Да, не густо! Но это лучше, чем ничего, верно?</t>
+  </si>
+  <si>
+    <t>*Телефонный звонок*</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>Джон</t>
+  </si>
+  <si>
+    <t>images/heroes/boss.png</t>
+  </si>
+  <si>
+    <t>Добрый вечер, HERO_NAME! Ты просил звонить, если будет подработка.</t>
+  </si>
+  <si>
+    <t>Собираюсь!</t>
+  </si>
+  <si>
+    <t>Ну вот и работенка нашлась, не скучай!</t>
+  </si>
+  <si>
+    <t>Уж я найду, чем себя занять. Удачи!</t>
+  </si>
+  <si>
+    <t>Кажется, это здесь! И вправду, давненько я тут не был…</t>
+  </si>
+  <si>
+    <t>dependence</t>
+  </si>
+  <si>
+    <t>Свои сбережения и другое имущество можно посмотреть в рюкзаке, который открывается из меню. Чтобы открыть меню, нажмите на круглую кнопку, расположенную на правой стороне экрана.</t>
+  </si>
+  <si>
+    <t>Хорошо-хорошо, сейчас проверю, дай только переодеться. А в прочем… За последнее время ничего интересного: реклама, глупости…</t>
+  </si>
+  <si>
+    <t>Странно… Очень странно. Тут золото! И больше ничего!</t>
+  </si>
+  <si>
+    <t>Как много?</t>
+  </si>
+  <si>
+    <t>Очень, очень много… Это не к добру!</t>
+  </si>
+  <si>
+    <t>Что за пессимизм? Всё совсем иначе. Ты понимаешь, о чем я?</t>
+  </si>
+  <si>
+    <t>О чем же?</t>
+  </si>
+  <si>
+    <t>Приключения!!!</t>
+  </si>
+  <si>
+    <t>Ну наконец-то ты тут! Пока тебя не было, пришло оповещение о почте. \nЧто там? Я сгораю от любопытства!!!</t>
+  </si>
+  <si>
+    <t>Хорошо, жду тебя на моей шахте. Моя шахта - угольная, если ты еще помнишь, хех!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привет! Да, конечно! Очень кстати, мне сейчас нужно развеяться. </t>
+  </si>
+  <si>
+    <t>Ну не знаю… Возможно, это единственный шанс повидать мир.</t>
+  </si>
+  <si>
+    <t>Мы бы могли отправиться в первое место, отмеченное на карте отца. Что ты об этом думаешь?</t>
+  </si>
+  <si>
+    <t>Отправиться в приключение можно, нажав на карту, которая находится на столе. Вперед, навстречу судьбе!</t>
+  </si>
+  <si>
+    <t>images/miniatures/close_money_letter_1.png</t>
+  </si>
+  <si>
+    <t>images/miniatures/open_money_letter_1.png</t>
+  </si>
+  <si>
+    <t>Открыть</t>
+  </si>
+  <si>
+    <t>15,16,17,18</t>
+  </si>
+  <si>
+    <t>size_hint_x</t>
+  </si>
+  <si>
+    <t>size_hint_y</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +933,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -861,11 +962,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1183,7 +1285,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1191,7 +1293,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1237,7 +1339,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1251,7 +1353,7 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -1265,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1279,7 +1381,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1293,7 +1395,7 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1307,7 +1409,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1321,7 +1423,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1335,7 +1437,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1349,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1363,7 +1465,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1377,7 +1479,7 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1391,7 +1493,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -9748,15 +9850,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -9764,7 +9866,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -9772,7 +9874,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -9780,7 +9882,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -10167,10 +10269,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A4338D-0251-443F-8906-A26B275FB1A2}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10178,12 +10280,14 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>70</v>
@@ -10198,13 +10302,16 @@
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10215,19 +10322,22 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10238,19 +10348,22 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10261,19 +10374,22 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10284,19 +10400,22 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10307,19 +10426,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10330,19 +10452,22 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10353,19 +10478,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10376,19 +10504,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10399,19 +10530,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10422,19 +10556,23 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>-G121-1</f>
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10445,15 +10583,226 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
     </row>
@@ -10464,11 +10813,117 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7D8AE-63E0-4282-8FD1-27B1D30F5777}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBED3B40-F405-47C9-B62A-30DA4B699185}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7D8AE-63E0-4282-8FD1-27B1D30F5777}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10483,16 +10938,16 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -10506,13 +10961,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -10526,13 +10981,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -10546,13 +11001,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -10566,13 +11021,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -10586,13 +11041,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -10606,19 +11061,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10626,13 +11081,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -10646,13 +11101,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -10660,162 +11115,462 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -10824,39 +11579,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264761C5-4E4D-4D79-9F3D-95D17886862B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="49" style="1" customWidth="1"/>
+    <col min="3" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="49" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
+      <c r="D1" t="s">
+        <v>282</v>
       </c>
       <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10864,126 +11625,82 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
       </c>
       <c r="E4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
       </c>
       <c r="E5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -10991,12 +11708,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C19161-88A0-48F0-AB89-48D18599DE1F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11019,39 +11736,51 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
+        <v>200</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11071,7 +11800,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -11082,10 +11811,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -11093,10 +11822,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -11104,10 +11833,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -11115,10 +11844,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -11126,10 +11855,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -11137,10 +11866,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -11148,10 +11877,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -11159,10 +11888,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
